--- a/04 - DecisionTrees/DecisionTreeFundamentals.xlsx
+++ b/04 - DecisionTrees/DecisionTreeFundamentals.xlsx
@@ -2,30 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielrb/Desktop/Artigo Estadão/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielrb/Documents/GitHub/MachineLearning/04 - DecisionTrees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE7057C7-ADB3-A049-826C-C63F41AC23F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD994D06-2AB7-2E4A-A530-6ED583FEEAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="29400" windowHeight="17420" xr2:uid="{556A7384-D044-9641-B2C3-2207606EFCB5}"/>
+    <workbookView xWindow="3460" yWindow="860" windowWidth="29400" windowHeight="17420" activeTab="6" xr2:uid="{556A7384-D044-9641-B2C3-2207606EFCB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Introdução" sheetId="7" r:id="rId1"/>
     <sheet name="ïndice de Gini" sheetId="1" r:id="rId2"/>
     <sheet name="Planilha2" sheetId="9" r:id="rId3"/>
     <sheet name="Planilha1" sheetId="8" r:id="rId4"/>
-    <sheet name="Árvore Regressão" sheetId="2" r:id="rId5"/>
-    <sheet name="Split" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId6"/>
+    <sheet name="Árvore Regressão" sheetId="2" r:id="rId7"/>
+    <sheet name="Split" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Árvore Regressão'!$A$1:$C$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Árvore Regressão'!$A$1:$C$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="9" r:id="rId9"/>
+    <pivotCache cacheId="6" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="95">
   <si>
     <t>Classe 1</t>
   </si>
@@ -295,9 +298,6 @@
     <t>Ganho de informação</t>
   </si>
   <si>
-    <t>Ganho da Informação</t>
-  </si>
-  <si>
     <t>Amostra for menor do que 4</t>
   </si>
   <si>
@@ -310,9 +310,6 @@
     <t>Domingo = não</t>
   </si>
   <si>
-    <t>Domingo = sim</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
@@ -323,6 +320,21 @@
   </si>
   <si>
     <t>Mean Squared Error</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>StdDevp of Vendas</t>
+  </si>
+  <si>
+    <t>Count of Vendas</t>
+  </si>
+  <si>
+    <t>Average of Vendas</t>
   </si>
 </sst>
 </file>
@@ -512,7 +524,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -599,6 +611,10 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1685,8 +1701,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1267" y="2454098"/>
-          <a:ext cx="3112207" cy="1556103"/>
+          <a:off x="1825" y="2454126"/>
+          <a:ext cx="3120562" cy="1560281"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1754,8 +1770,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="46844" y="2499675"/>
-        <a:ext cx="3021053" cy="1464949"/>
+        <a:off x="47524" y="2499825"/>
+        <a:ext cx="3029164" cy="1468883"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FA6A63C0-AFB5-E840-A55D-ECC6BC8EEA96}">
@@ -1765,8 +1781,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="18289469">
-          <a:off x="2645949" y="2315725"/>
-          <a:ext cx="2179934" cy="43330"/>
+          <a:off x="2653606" y="2315396"/>
+          <a:ext cx="2185786" cy="43417"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1777,10 +1793,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="21665"/>
+                <a:pt x="0" y="21708"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2179934" y="21665"/>
+                <a:pt x="2185786" y="21708"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1835,8 +1851,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3681418" y="2282892"/>
-        <a:ext cx="108996" cy="108996"/>
+        <a:off x="3691855" y="2282460"/>
+        <a:ext cx="109289" cy="109289"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{53BAF418-DD27-BF46-B45B-A0C36523D2DA}">
@@ -1846,8 +1862,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4358357" y="664579"/>
-          <a:ext cx="3112207" cy="1556103"/>
+          <a:off x="4370612" y="659803"/>
+          <a:ext cx="3120562" cy="1560281"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1915,8 +1931,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4403934" y="710156"/>
-        <a:ext cx="3021053" cy="1464949"/>
+        <a:off x="4416311" y="705502"/>
+        <a:ext cx="3029164" cy="1468883"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5C420475-20BE-B748-AE37-48C4DF5F5142}">
@@ -1926,8 +1942,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3113475" y="3210485"/>
-          <a:ext cx="1244882" cy="43330"/>
+          <a:off x="3122387" y="3212558"/>
+          <a:ext cx="1248224" cy="43417"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1938,10 +1954,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="21665"/>
+                <a:pt x="0" y="21708"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1244882" y="21665"/>
+                <a:pt x="1248224" y="21708"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1996,8 +2012,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3704794" y="3201028"/>
-        <a:ext cx="62244" cy="62244"/>
+        <a:off x="3715294" y="3203061"/>
+        <a:ext cx="62411" cy="62411"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FEE1409E-76A4-9F48-A77E-4A6901D20B6C}">
@@ -2007,8 +2023,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4358357" y="2454098"/>
-          <a:ext cx="3112207" cy="1556103"/>
+          <a:off x="4370612" y="2454126"/>
+          <a:ext cx="3120562" cy="1560281"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2076,8 +2092,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4403934" y="2499675"/>
-        <a:ext cx="3021053" cy="1464949"/>
+        <a:off x="4416311" y="2499825"/>
+        <a:ext cx="3029164" cy="1468883"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D581536D-EE62-AC4A-A345-8C980EEEC957}">
@@ -2087,8 +2103,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="3310531">
-          <a:off x="2645949" y="4105245"/>
-          <a:ext cx="2179934" cy="43330"/>
+          <a:off x="2653606" y="4109719"/>
+          <a:ext cx="2185786" cy="43417"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2099,10 +2115,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="21665"/>
+                <a:pt x="0" y="21708"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2179934" y="21665"/>
+                <a:pt x="2185786" y="21708"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2157,8 +2173,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3681418" y="4072411"/>
-        <a:ext cx="108996" cy="108996"/>
+        <a:off x="3691855" y="4076784"/>
+        <a:ext cx="109289" cy="109289"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8BB75AE0-D362-B040-9DD7-2B9C772C20B3}">
@@ -2168,8 +2184,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4358357" y="4243617"/>
-          <a:ext cx="3112207" cy="1556103"/>
+          <a:off x="4370612" y="4248449"/>
+          <a:ext cx="3120562" cy="1560281"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2237,8 +2253,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4403934" y="4289194"/>
-        <a:ext cx="3021053" cy="1464949"/>
+        <a:off x="4416311" y="4294148"/>
+        <a:ext cx="3029164" cy="1468883"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -3840,10 +3856,58 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Domingo" numFmtId="0">
+      <sharedItems count="2">
+        <s v="sim"/>
+        <s v="não"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Vendas" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="147" maxValue="309"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Daniel  Bergmann" refreshedDate="45307.518132523146" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="13" xr:uid="{5C6E3FB8-F2D7-A44B-8667-6454B2856F10}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D14" sheet="Árvore Regressão"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Temperatura " numFmtId="0">
+      <sharedItems count="3">
+        <s v="quente"/>
+        <s v="frio"/>
+        <s v="ameno"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Domingo" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Vendas" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="147" maxValue="309"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="147" maxValue="309" count="13">
+        <n v="286"/>
+        <n v="147"/>
+        <n v="169"/>
+        <n v="172"/>
+        <n v="176"/>
+        <n v="253"/>
+        <n v="238"/>
+        <n v="151"/>
+        <n v="168"/>
+        <n v="264"/>
+        <n v="207"/>
+        <n v="309"/>
+        <n v="245"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Vendas Previstas" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="149" maxValue="297.5"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3858,74 +3922,157 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="13">
   <r>
     <x v="0"/>
-    <s v="sim"/>
+    <x v="0"/>
     <n v="286"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="não"/>
+    <x v="1"/>
     <n v="147"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="não"/>
+    <x v="1"/>
     <n v="169"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="sim"/>
+    <x v="0"/>
     <n v="172"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="não"/>
+    <x v="1"/>
     <n v="176"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="não"/>
+    <x v="1"/>
     <n v="253"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="não"/>
+    <x v="1"/>
     <n v="238"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="não"/>
+    <x v="1"/>
     <n v="151"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="sim"/>
+    <x v="0"/>
     <n v="168"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="não"/>
+    <x v="1"/>
     <n v="264"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="sim"/>
+    <x v="0"/>
     <n v="207"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="sim"/>
+    <x v="0"/>
     <n v="309"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="não"/>
+    <x v="1"/>
     <n v="245"/>
   </r>
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="13">
+  <r>
+    <x v="0"/>
+    <s v="sim"/>
+    <x v="0"/>
+    <n v="297.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="não"/>
+    <x v="1"/>
+    <n v="149"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="não"/>
+    <x v="2"/>
+    <n v="184"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="sim"/>
+    <x v="3"/>
+    <n v="170"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="não"/>
+    <x v="4"/>
+    <n v="184"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="não"/>
+    <x v="5"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="não"/>
+    <x v="6"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="não"/>
+    <x v="7"/>
+    <n v="149"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="sim"/>
+    <x v="8"/>
+    <n v="170"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="não"/>
+    <x v="9"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="sim"/>
+    <x v="10"/>
+    <n v="184"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="sim"/>
+    <x v="11"/>
+    <n v="297.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="não"/>
+    <x v="12"/>
+    <n v="250"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DCD99BC-E49D-DA44-AD3C-B9AB72DBD9D0}" name="Tabela dinâmica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DCD99BC-E49D-DA44-AD3C-B9AB72DBD9D0}" name="Tabela dinâmica6" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3974,10 +4121,162 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90456FF2-D3EE-3F4B-9A19-2BED6F1DF7F0}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="14">
+        <item x="1"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="StdDevp of Vendas" fld="2" subtotal="stdDevp" baseField="0" baseItem="0"/>
+    <dataField name="Count of Vendas" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7AD86D36-505B-AD49-975D-7D6185C6BF3A}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Vendas" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4015,7 +4314,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4121,7 +4420,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4263,7 +4562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4273,7 +4572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AC4A79-EBA7-BB4C-ACEC-01838E6A6E16}">
   <dimension ref="L5:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -5144,11 +5443,195 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D8552A-42F2-9A4D-9168-EC2FF3C539C0}">
+  <dimension ref="A3:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="4.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="39">
+        <v>16.512621435334449</v>
+      </c>
+      <c r="C4" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="39">
+        <v>10.688779163215974</v>
+      </c>
+      <c r="C5" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="39">
+        <v>24.653712814818697</v>
+      </c>
+      <c r="C6" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="39">
+        <v>52.346704908646345</v>
+      </c>
+      <c r="C7" s="39">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EF2B2B-3F36-954E-BB46-B56FE9012A6E}">
+  <dimension ref="A3:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="39">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="39">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="39">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="39">
+        <v>159.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="39">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="39">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="39">
+        <v>265.83333333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="39">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="39">
+        <v>297.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="39">
+        <v>214.23076923076923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B85878F-6CF7-0140-A179-1418EE20569D}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="P2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -5179,7 +5662,7 @@
     <col min="28" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
@@ -5190,16 +5673,16 @@
         <v>19</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -5223,7 +5706,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
@@ -5250,8 +5733,11 @@
       <c r="M3" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -5274,11 +5760,11 @@
       <c r="M4" s="12">
         <v>14</v>
       </c>
-      <c r="W4" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4" s="8">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
@@ -5315,8 +5801,11 @@
         <v>15</v>
       </c>
       <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
@@ -5348,11 +5837,11 @@
       </c>
       <c r="K6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="W6" s="8">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -5394,8 +5883,11 @@
         <v>65</v>
       </c>
       <c r="O7" s="12"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
@@ -5433,8 +5925,11 @@
         <f>_xlfn.STDEV.S(M3:M5)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
@@ -5461,11 +5956,11 @@
         <f>SUM(I6:I8)</f>
         <v>13</v>
       </c>
-      <c r="W9" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
@@ -5491,8 +5986,11 @@
       <c r="M10" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="31" x14ac:dyDescent="0.35">
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+    </row>
+    <row r="11" spans="1:26" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -5520,11 +6018,11 @@
       <c r="M11" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="W11" s="8">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
@@ -5548,8 +6046,11 @@
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -5583,8 +6084,11 @@
       <c r="N13" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -5601,7 +6105,10 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G14" s="31"/>
+      <c r="G14" s="31">
+        <f>G3-G11</f>
+        <v>33.879781831723264</v>
+      </c>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
@@ -5613,17 +6120,17 @@
         <v>10</v>
       </c>
       <c r="Q14" s="12"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D15" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E15" s="12">
         <f>AVERAGE(E2:E14)</f>
         <v>113.26923076923077</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
@@ -5631,10 +6138,13 @@
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15" s="14"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D16" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
@@ -5642,22 +6152,25 @@
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16" s="14"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <f>CORREL(C2:C14,D2:D14)</f>
         <v>0.97911365158692221</v>
       </c>
-      <c r="G17" s="31">
-        <f>G3-G11</f>
-        <v>33.879781831723264</v>
-      </c>
+      <c r="G17" s="31"/>
       <c r="K17"/>
       <c r="L17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C18" s="38">
         <f>C17^2</f>
@@ -5666,6 +6179,9 @@
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G19" s="8" t="s">
@@ -5683,6 +6199,9 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G20" s="8" t="s">
@@ -5701,6 +6220,9 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G21" s="8" t="s">
@@ -5721,6 +6243,9 @@
       <c r="M21"/>
       <c r="P21"/>
       <c r="Q21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="I22"/>
@@ -5730,6 +6255,9 @@
       <c r="M22"/>
       <c r="P22"/>
       <c r="Q22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G23" s="8" t="s">
@@ -5742,7 +6270,7 @@
       <c r="M23"/>
       <c r="P23"/>
       <c r="Q23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.3">
@@ -5774,9 +6302,7 @@
       <c r="W24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Z24" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="Z24" s="10"/>
       <c r="AA24" s="10" t="s">
         <v>16</v>
       </c>
@@ -5809,9 +6335,7 @@
       <c r="W25" s="9">
         <v>147</v>
       </c>
-      <c r="Z25" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="Z25" s="9"/>
       <c r="AA25" s="9" t="s">
         <v>17</v>
       </c>
@@ -5847,9 +6371,7 @@
       <c r="W26" s="9">
         <v>172</v>
       </c>
-      <c r="Z26" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="Z26" s="9"/>
       <c r="AA26" s="9" t="s">
         <v>18</v>
       </c>
@@ -5886,9 +6408,7 @@
       <c r="W27" s="9">
         <v>151</v>
       </c>
-      <c r="Z27" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="Z27" s="9"/>
       <c r="AA27" s="9" t="s">
         <v>18</v>
       </c>
@@ -5920,9 +6440,7 @@
       <c r="W28" s="9">
         <v>168</v>
       </c>
-      <c r="Z28" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="Z28" s="9"/>
       <c r="AA28" s="9" t="s">
         <v>18</v>
       </c>
@@ -5938,9 +6456,7 @@
       <c r="M29"/>
       <c r="P29"/>
       <c r="Q29"/>
-      <c r="Z29" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="Z29" s="9"/>
       <c r="AA29" s="9" t="s">
         <v>17</v>
       </c>
@@ -5957,11 +6473,9 @@
       <c r="P30"/>
       <c r="Q30"/>
       <c r="U30" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z30" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="Z30" s="9"/>
       <c r="AA30" s="9" t="s">
         <v>18</v>
       </c>
@@ -5982,10 +6496,7 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.3">
       <c r="U32" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z32" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="21:27" x14ac:dyDescent="0.3">
@@ -5995,23 +6506,14 @@
       <c r="V33" s="35">
         <v>149</v>
       </c>
-      <c r="Z33" s="35" t="s">
-        <v>19</v>
-      </c>
+      <c r="Z33" s="35"/>
       <c r="AA33" s="35">
         <f>(AB25+AB29)/2</f>
         <v>297.5</v>
       </c>
     </row>
-    <row r="35" spans="21:27" x14ac:dyDescent="0.3">
-      <c r="Z35" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="36" spans="21:27" x14ac:dyDescent="0.3">
-      <c r="Z36" s="35" t="s">
-        <v>19</v>
-      </c>
+      <c r="Z36" s="35"/>
       <c r="AA36" s="35">
         <f>(AB26+AB27+AB30+AB28)/4</f>
         <v>250</v>
@@ -6024,12 +6526,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733CAE0A-C238-684E-9165-241DE7288EEA}">
-  <dimension ref="B2:H19"/>
+  <dimension ref="B2:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D17" sqref="D4:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6438,6 +6940,12 @@
     <row r="19" spans="2:8" ht="25" x14ac:dyDescent="0.25">
       <c r="D19" s="17"/>
     </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f>(B17+B3)/2</f>
+        <v>365</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/04 - DecisionTrees/DecisionTreeFundamentals.xlsx
+++ b/04 - DecisionTrees/DecisionTreeFundamentals.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielrb/Documents/GitHub/MachineLearning/04 - DecisionTrees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD994D06-2AB7-2E4A-A530-6ED583FEEAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A965A18B-B295-924C-9ECC-2573BBAD39BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="860" windowWidth="29400" windowHeight="17420" activeTab="6" xr2:uid="{556A7384-D044-9641-B2C3-2207606EFCB5}"/>
+    <workbookView xWindow="3040" yWindow="2120" windowWidth="29400" windowHeight="17420" activeTab="2" xr2:uid="{556A7384-D044-9641-B2C3-2207606EFCB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Introdução" sheetId="7" r:id="rId1"/>
-    <sheet name="ïndice de Gini" sheetId="1" r:id="rId2"/>
-    <sheet name="Planilha2" sheetId="9" r:id="rId3"/>
-    <sheet name="Planilha1" sheetId="8" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId6"/>
-    <sheet name="Árvore Regressão" sheetId="2" r:id="rId7"/>
-    <sheet name="Split" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId2"/>
+    <sheet name="ïndice de Gini" sheetId="1" r:id="rId3"/>
+    <sheet name="Planilha2" sheetId="9" r:id="rId4"/>
+    <sheet name="Planilha1" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId7"/>
+    <sheet name="Árvore Regressão" sheetId="2" r:id="rId8"/>
+    <sheet name="Split" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Árvore Regressão'!$A$1:$C$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Árvore Regressão'!$A$1:$C$14</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId9"/>
-    <pivotCache cacheId="6" r:id="rId10"/>
+    <pivotCache cacheId="10" r:id="rId10"/>
+    <pivotCache cacheId="11" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="124">
   <si>
     <t>Classe 1</t>
   </si>
@@ -335,14 +336,102 @@
   </si>
   <si>
     <t>Average of Vendas</t>
+  </si>
+  <si>
+    <t>Coeficiente de Gini</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Mau Pagador</t>
+  </si>
+  <si>
+    <t>Bom Pagador</t>
+  </si>
+  <si>
+    <t>Idade</t>
+  </si>
+  <si>
+    <t>idade</t>
+  </si>
+  <si>
+    <t>adulto</t>
+  </si>
+  <si>
+    <t>idoso</t>
+  </si>
+  <si>
+    <t>Default =0</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Default = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adulto </t>
+  </si>
+  <si>
+    <t>Zona de Máxima Incerteza</t>
+  </si>
+  <si>
+    <t>Gini = 1 - prob1^2 - prob2^2</t>
+  </si>
+  <si>
+    <t>Cara e Coroa (Alta Incerteza)</t>
+  </si>
+  <si>
+    <t>(Calcula o nível de incerteza de X)</t>
+  </si>
+  <si>
+    <t>Zona de Máxima Certeza</t>
+  </si>
+  <si>
+    <t>A idade pode prever Default = 0 com 100% de acerto</t>
+  </si>
+  <si>
+    <t>Sabendo que adulto, é suficiente para acertar Default = 0</t>
+  </si>
+  <si>
+    <t>Gini Global</t>
+  </si>
+  <si>
+    <t>N = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gini Global </t>
+  </si>
+  <si>
+    <t>Default = 0</t>
+  </si>
+  <si>
+    <t>Qtde</t>
+  </si>
+  <si>
+    <t>1 - Prob(adulto)^2 - Prob(idoso)^2</t>
+  </si>
+  <si>
+    <t>N =3</t>
+  </si>
+  <si>
+    <t>N = 3</t>
+  </si>
+  <si>
+    <t>Nível de incerteza da variável Default</t>
+  </si>
+  <si>
+    <t>Quanto mais Próximo de zero (maior é o poder preditivo da variável)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -434,7 +523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,6 +545,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,7 +637,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -612,9 +725,50 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1701,8 +1855,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1825" y="2454126"/>
-          <a:ext cx="3120562" cy="1560281"/>
+          <a:off x="1267" y="2454098"/>
+          <a:ext cx="3112207" cy="1556103"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1770,8 +1924,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="47524" y="2499825"/>
-        <a:ext cx="3029164" cy="1468883"/>
+        <a:off x="46844" y="2499675"/>
+        <a:ext cx="3021053" cy="1464949"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FA6A63C0-AFB5-E840-A55D-ECC6BC8EEA96}">
@@ -1781,8 +1935,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="18289469">
-          <a:off x="2653606" y="2315396"/>
-          <a:ext cx="2185786" cy="43417"/>
+          <a:off x="2645949" y="2315725"/>
+          <a:ext cx="2179934" cy="43330"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1793,10 +1947,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="21708"/>
+                <a:pt x="0" y="21665"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2185786" y="21708"/>
+                <a:pt x="2179934" y="21665"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1851,8 +2005,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3691855" y="2282460"/>
-        <a:ext cx="109289" cy="109289"/>
+        <a:off x="3681418" y="2282892"/>
+        <a:ext cx="108996" cy="108996"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{53BAF418-DD27-BF46-B45B-A0C36523D2DA}">
@@ -1862,8 +2016,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4370612" y="659803"/>
-          <a:ext cx="3120562" cy="1560281"/>
+          <a:off x="4358357" y="664579"/>
+          <a:ext cx="3112207" cy="1556103"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1931,8 +2085,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4416311" y="705502"/>
-        <a:ext cx="3029164" cy="1468883"/>
+        <a:off x="4403934" y="710156"/>
+        <a:ext cx="3021053" cy="1464949"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5C420475-20BE-B748-AE37-48C4DF5F5142}">
@@ -1942,8 +2096,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3122387" y="3212558"/>
-          <a:ext cx="1248224" cy="43417"/>
+          <a:off x="3113475" y="3210485"/>
+          <a:ext cx="1244882" cy="43330"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1954,10 +2108,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="21708"/>
+                <a:pt x="0" y="21665"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1248224" y="21708"/>
+                <a:pt x="1244882" y="21665"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2012,8 +2166,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3715294" y="3203061"/>
-        <a:ext cx="62411" cy="62411"/>
+        <a:off x="3704794" y="3201028"/>
+        <a:ext cx="62244" cy="62244"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FEE1409E-76A4-9F48-A77E-4A6901D20B6C}">
@@ -2023,8 +2177,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4370612" y="2454126"/>
-          <a:ext cx="3120562" cy="1560281"/>
+          <a:off x="4358357" y="2454098"/>
+          <a:ext cx="3112207" cy="1556103"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2092,8 +2246,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4416311" y="2499825"/>
-        <a:ext cx="3029164" cy="1468883"/>
+        <a:off x="4403934" y="2499675"/>
+        <a:ext cx="3021053" cy="1464949"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D581536D-EE62-AC4A-A345-8C980EEEC957}">
@@ -2103,8 +2257,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="3310531">
-          <a:off x="2653606" y="4109719"/>
-          <a:ext cx="2185786" cy="43417"/>
+          <a:off x="2645949" y="4105245"/>
+          <a:ext cx="2179934" cy="43330"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2115,10 +2269,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="21708"/>
+                <a:pt x="0" y="21665"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2185786" y="21708"/>
+                <a:pt x="2179934" y="21665"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2173,8 +2327,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3691855" y="4076784"/>
-        <a:ext cx="109289" cy="109289"/>
+        <a:off x="3681418" y="4072411"/>
+        <a:ext cx="108996" cy="108996"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8BB75AE0-D362-B040-9DD7-2B9C772C20B3}">
@@ -2184,8 +2338,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4370612" y="4248449"/>
-          <a:ext cx="3120562" cy="1560281"/>
+          <a:off x="4358357" y="4243617"/>
+          <a:ext cx="3112207" cy="1556103"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2253,8 +2407,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4416311" y="4294148"/>
-        <a:ext cx="3029164" cy="1468883"/>
+        <a:off x="4403934" y="4289194"/>
+        <a:ext cx="3021053" cy="1464949"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -3669,13 +3823,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>31262</xdr:colOff>
+      <xdr:colOff>138723</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>157502</xdr:colOff>
+      <xdr:colOff>264963</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -3700,7 +3854,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31262" y="0"/>
+          <a:off x="138723" y="0"/>
           <a:ext cx="4278163" cy="2897554"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3713,15 +3867,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
+      <xdr:colOff>484011</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>100905</xdr:rowOff>
+      <xdr:rowOff>23294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:colOff>699911</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>129877</xdr:rowOff>
+      <xdr:rowOff>52266</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3744,8 +3898,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6248400" y="3758505"/>
-          <a:ext cx="2692400" cy="1451372"/>
+          <a:off x="6262511" y="3706294"/>
+          <a:ext cx="2692400" cy="1461250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4072,7 +4226,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DCD99BC-E49D-DA44-AD3C-B9AB72DBD9D0}" name="Tabela dinâmica6" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DCD99BC-E49D-DA44-AD3C-B9AB72DBD9D0}" name="Tabela dinâmica6" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -4122,7 +4276,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90456FF2-D3EE-3F4B-9A19-2BED6F1DF7F0}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90456FF2-D3EE-3F4B-9A19-2BED6F1DF7F0}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -4199,7 +4353,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7AD86D36-505B-AD49-975D-7D6185C6BF3A}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7AD86D36-505B-AD49-975D-7D6185C6BF3A}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -4659,16 +4813,546 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5F11D4-ABF0-6346-AF53-5B907184A795}">
+  <dimension ref="A1:Z23"/>
+  <sheetViews>
+    <sheetView topLeftCell="S10" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W3" t="s">
+        <v>99</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C4" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="42">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="42">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W4" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="X4" s="49">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C5" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="42">
+        <v>0</v>
+      </c>
+      <c r="M5" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" s="42">
+        <v>0</v>
+      </c>
+      <c r="W5" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="X5" s="49">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C6" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="44">
+        <v>1</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="N6" s="44">
+        <v>1</v>
+      </c>
+      <c r="W6" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="X6" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C7" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="44">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="N7" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>100</v>
+      </c>
+      <c r="W7" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="X7" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>101</v>
+      </c>
+      <c r="W8" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>102</v>
+      </c>
+      <c r="W9" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C11" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="X11" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z11" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="40">
+        <f>D12/D14</f>
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="3">
+        <f>1-E12^2-E13^2</f>
+        <v>0.5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12" s="40">
+        <f>N12/N14</f>
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <f>1-1^2 - 0</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>112</v>
+      </c>
+      <c r="W12" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="X12" s="53">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="19">
+        <f>X12/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z12" s="19">
+        <f>1-Y12^2 - Y13^2</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="40">
+        <f>1-E12</f>
+        <v>0.5</v>
+      </c>
+      <c r="M13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="40">
+        <f>1-O12</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>113</v>
+      </c>
+      <c r="W13" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="X13" s="53">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="19">
+        <f>1-Y12</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="Z13" s="19"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" t="s">
+        <v>115</v>
+      </c>
+      <c r="W16" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C17" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="N17" t="s">
+        <v>104</v>
+      </c>
+      <c r="O17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <f>1-Y18</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="Z17">
+        <f>Z12</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="45">
+        <f>1-O19</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <f>1-O19^2-O18^2</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="X18" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <f>X18/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="M19" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19" s="45">
+        <f>N19/N20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="W20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="W21" s="46">
+        <f>50%*Z12+50%*Z17</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="X21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C23" s="3">
+        <f>50%*F12+50%*F18</f>
+        <v>0.5</v>
+      </c>
+      <c r="M23" s="47">
+        <f>50%*P12+50%*P18</f>
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1BECA9-81D9-5541-BDDC-E2E0A6318C0C}">
   <dimension ref="A4:X49"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B20"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="S4" s="3" t="s">
         <v>31</v>
       </c>
@@ -4679,7 +5363,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="T5" t="s">
         <v>28</v>
       </c>
@@ -4691,7 +5375,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="T6" t="s">
         <v>29</v>
       </c>
@@ -4702,7 +5386,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="U8" t="s">
         <v>8</v>
       </c>
@@ -4714,12 +5398,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="U9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="S11" s="3" t="s">
         <v>31</v>
       </c>
@@ -4730,7 +5414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="T12" t="s">
         <v>28</v>
       </c>
@@ -4742,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="T13" t="s">
         <v>29</v>
       </c>
@@ -4754,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="U15" t="s">
         <v>8</v>
       </c>
@@ -4766,10 +5450,22 @@
         <v>34</v>
       </c>
     </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="54">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+    </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -4845,6 +5541,10 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B22" s="55">
+        <f>5/8</f>
+        <v>0.625</v>
+      </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -4991,6 +5691,9 @@
       <c r="J30" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K30">
+        <v>0.44</v>
+      </c>
       <c r="U30" t="s">
         <v>8</v>
       </c>
@@ -5071,6 +5774,9 @@
         <v>1</v>
       </c>
       <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>0</v>
       </c>
     </row>
@@ -5193,7 +5899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8266EA99-509C-1348-B370-75AA1D1143DE}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -5383,7 +6089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF43D40-04AD-A642-AA9E-40920CE4DAD5}">
   <dimension ref="A3:B7"/>
   <sheetViews>
@@ -5442,7 +6148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D8552A-42F2-9A4D-9168-EC2FF3C539C0}">
   <dimension ref="A3:C7"/>
   <sheetViews>
@@ -5473,10 +6179,10 @@
       <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4">
         <v>16.512621435334449</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4">
         <v>3</v>
       </c>
     </row>
@@ -5484,10 +6190,10 @@
       <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5">
         <v>10.688779163215974</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5">
         <v>4</v>
       </c>
     </row>
@@ -5495,10 +6201,10 @@
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6">
         <v>24.653712814818697</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6">
         <v>6</v>
       </c>
     </row>
@@ -5506,10 +6212,10 @@
       <c r="A7" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7">
         <v>52.346704908646345</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7">
         <v>13</v>
       </c>
     </row>
@@ -5518,7 +6224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EF2B2B-3F36-954E-BB46-B56FE9012A6E}">
   <dimension ref="A3:B13"/>
   <sheetViews>
@@ -5545,23 +6251,23 @@
       <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4">
         <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5">
         <v>172.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6">
         <v>207</v>
       </c>
     </row>
@@ -5569,23 +6275,23 @@
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7">
         <v>159.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8">
         <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9">
         <v>170</v>
       </c>
     </row>
@@ -5593,23 +6299,23 @@
       <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10">
         <v>265.83333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12">
         <v>297.5</v>
       </c>
     </row>
@@ -5617,7 +6323,7 @@
       <c r="A13" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13">
         <v>214.23076923076923</v>
       </c>
     </row>
@@ -5626,11 +6332,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B85878F-6CF7-0140-A179-1418EE20569D}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="P2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
@@ -6526,7 +7232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733CAE0A-C238-684E-9165-241DE7288EEA}">
   <dimension ref="B2:H22"/>
   <sheetViews>

--- a/04 - DecisionTrees/DecisionTreeFundamentals.xlsx
+++ b/04 - DecisionTrees/DecisionTreeFundamentals.xlsx
@@ -1,35 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielrb/Documents/GitHub/MachineLearning/04 - DecisionTrees/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbergmann/Documents/GitHub/MachineLearning/04 - DecisionTrees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A965A18B-B295-924C-9ECC-2573BBAD39BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C684F2D1-CE84-714C-AB11-92EEF0140C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="2120" windowWidth="29400" windowHeight="17420" activeTab="2" xr2:uid="{556A7384-D044-9641-B2C3-2207606EFCB5}"/>
+    <workbookView minimized="1" xWindow="5300" yWindow="3360" windowWidth="39500" windowHeight="20340" activeTab="11" xr2:uid="{556A7384-D044-9641-B2C3-2207606EFCB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Introdução" sheetId="7" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="12" r:id="rId2"/>
-    <sheet name="ïndice de Gini" sheetId="1" r:id="rId3"/>
-    <sheet name="Planilha2" sheetId="9" r:id="rId4"/>
-    <sheet name="Planilha1" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId7"/>
-    <sheet name="Árvore Regressão" sheetId="2" r:id="rId8"/>
-    <sheet name="Split" sheetId="6" r:id="rId9"/>
+    <sheet name="Sheet4" sheetId="13" r:id="rId3"/>
+    <sheet name="ïndice de Gini" sheetId="1" r:id="rId4"/>
+    <sheet name="Planilha2" sheetId="9" r:id="rId5"/>
+    <sheet name="Planilha1" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="14" r:id="rId9"/>
+    <sheet name="Sheet6" sheetId="15" r:id="rId10"/>
+    <sheet name="Sheet7" sheetId="16" r:id="rId11"/>
+    <sheet name="Árvore Regressão" sheetId="2" r:id="rId12"/>
+    <sheet name="Split" sheetId="6" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Árvore Regressão'!$A$1:$C$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Árvore Regressão'!$A$1:$C$18</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId10"/>
-    <pivotCache cacheId="11" r:id="rId11"/>
+    <pivotCache cacheId="4" r:id="rId14"/>
+    <pivotCache cacheId="5" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -51,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="161">
   <si>
     <t>Classe 1</t>
   </si>
@@ -314,9 +318,6 @@
     <t>R2</t>
   </si>
   <si>
-    <t>Erro</t>
-  </si>
-  <si>
     <t>MSE</t>
   </si>
   <si>
@@ -423,6 +424,120 @@
   </si>
   <si>
     <t>Quanto mais Próximo de zero (maior é o poder preditivo da variável)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>bom</t>
+  </si>
+  <si>
+    <t>mau</t>
+  </si>
+  <si>
+    <t>1- prob1^2 - prob2^2</t>
+  </si>
+  <si>
+    <t>Impureza Máxima</t>
+  </si>
+  <si>
+    <t>Gini da idade</t>
+  </si>
+  <si>
+    <t>0 até 0,5</t>
+  </si>
+  <si>
+    <t>Casa Própria</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Mulher (1)</t>
+  </si>
+  <si>
+    <t>Homem (0)</t>
+  </si>
+  <si>
+    <t>Gini Sexo</t>
+  </si>
+  <si>
+    <t>Grau de Dispersão das Vendas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ameno </t>
+  </si>
+  <si>
+    <t>Quanto o Desvio-Padrão diminuiu</t>
+  </si>
+  <si>
+    <t>Previsão</t>
+  </si>
+  <si>
+    <t>95% das Vendas podem ser explicadas por</t>
+  </si>
+  <si>
+    <t>Temperatura e Domingo</t>
+  </si>
+  <si>
+    <t>Vendas de Sorvete em João Pessoa - PB</t>
+  </si>
+  <si>
+    <t>Porcentagem</t>
+  </si>
+  <si>
+    <t>Temperatura</t>
+  </si>
+  <si>
+    <t>Ganho de informação = Ganho de preditivo da Temperatura nas Vendas</t>
+  </si>
+  <si>
+    <t>Desvio Global - Desvio da Temperatura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of Temperatura </t>
+  </si>
+  <si>
+    <t>Domigo</t>
+  </si>
+  <si>
+    <t>Erro Quadrático</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>Quanto menor o erro, maior o poder preditivo do modelo</t>
+  </si>
+  <si>
+    <t>Regressão</t>
+  </si>
+  <si>
+    <t>Classificação</t>
+  </si>
+  <si>
+    <t>Numérica</t>
+  </si>
+  <si>
+    <t>Dummy (0 ou 1)</t>
+  </si>
+  <si>
+    <t>Bom e Mau Pagador</t>
+  </si>
+  <si>
+    <t>Decision tree</t>
+  </si>
+  <si>
+    <t>Parâmetro</t>
+  </si>
+  <si>
+    <t>R2, RMSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de Acerto </t>
   </si>
 </sst>
 </file>
@@ -431,9 +546,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -518,6 +633,20 @@
     <font>
       <sz val="28"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -637,7 +766,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -742,11 +871,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -758,16 +883,29 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3823,6 +3961,55 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB583E4-1979-8BD8-87E0-56B42446E210}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7772400" cy="3501686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>138723</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3955,7 +4142,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3991,6 +4178,94 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>46841</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>389467</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>217169</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C38C78-B197-BE46-9311-32B8559B4BC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19105308" y="50799"/>
+          <a:ext cx="6718026" cy="7498503"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>745067</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1574800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>24794</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A158C6A-53E2-A358-81EE-84D2E020F1F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15477067" y="5782733"/>
+          <a:ext cx="7772400" cy="2564794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4226,7 +4501,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DCD99BC-E49D-DA44-AD3C-B9AB72DBD9D0}" name="Tabela dinâmica6" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DCD99BC-E49D-DA44-AD3C-B9AB72DBD9D0}" name="Tabela dinâmica6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -4276,7 +4551,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90456FF2-D3EE-3F4B-9A19-2BED6F1DF7F0}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90456FF2-D3EE-3F4B-9A19-2BED6F1DF7F0}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -4353,7 +4628,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7AD86D36-505B-AD49-975D-7D6185C6BF3A}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7AD86D36-505B-AD49-975D-7D6185C6BF3A}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -4427,10 +4702,200 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2879DE7-A833-3644-BA29-2FC87E82265E}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item h="1" sd="0" x="2"/>
+        <item h="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="StdDevp of Vendas" fld="2" subtotal="stdDevp" baseField="0" baseItem="0"/>
+    <dataField name="Count of Vendas" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Average of Vendas" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{306CF2A4-48B9-A645-A91F-ABF3783E6E37}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="StdDevp of Vendas" fld="2" subtotal="stdDevp" baseField="0" baseItem="0"/>
+    <dataField name="Count of Vendas" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F0AF8C07-45E6-844C-8193-6D7E82190920}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="StdDevp of Vendas" fld="2" subtotal="stdDevp" baseField="0" baseItem="0"/>
+    <dataField name="Count of Temperatura " fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4468,7 +4933,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4574,7 +5039,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4716,7 +5181,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4812,12 +5277,1888 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C601048D-0E87-8C45-BEDE-0E3FCBB60FBD}">
+  <dimension ref="A2:D11"/>
+  <sheetViews>
+    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2">
+        <f>GETPIVOTDATA("StdDevp of Vendas",$A$3,"Temperatura ","ameno")*D4+GETPIVOTDATA("StdDevp of Vendas",$A$3,"Temperatura ","frio")*D5+GETPIVOTDATA("StdDevp of Vendas",$A$3,"Temperatura ","quente")*D6</f>
+        <v>18.478096757521495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>16.512621435334449</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="60">
+        <f>GETPIVOTDATA("Count of Vendas",$A$3,"Temperatura ","ameno")/GETPIVOTDATA("Count of Vendas",$A$3)</f>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>10.688779163215974</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="60">
+        <f>GETPIVOTDATA("Count of Vendas",$A$3,"Temperatura ","frio")/GETPIVOTDATA("Count of Vendas",$A$3)</f>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>24.653712814818697</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="60">
+        <f>GETPIVOTDATA("Count of Vendas",$A$3,"Temperatura ","quente")/GETPIVOTDATA("Count of Vendas",$A$3)</f>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <v>52.346704908646345</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="61">
+        <f>GETPIVOTDATA("StdDevp of Vendas",$A$3)-B2</f>
+        <v>33.868608151124846</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8096C5B7-834F-394D-AF5F-37525B75B5DA}">
+  <dimension ref="A2:I11"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2">
+        <f>GETPIVOTDATA("StdDevp of Vendas",$A$3,"Domingo","não")*D4+GETPIVOTDATA("StdDevp of Vendas",$A$3,"Domingo","sim")*D5</f>
+        <v>50.76918878331557</v>
+      </c>
+      <c r="F2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2">
+        <v>18.478096757521495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>45.948170529412813</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <f>GETPIVOTDATA("Count of Temperatura ",$A$3,"Domingo","não")/GETPIVOTDATA("Count of Temperatura ",$A$3)</f>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>16.512621435334449</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>58.482817989559976</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <f>GETPIVOTDATA("Count of Temperatura ",$A$3,"Domingo","sim")/GETPIVOTDATA("Count of Temperatura ",$A$3)</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>10.688779163215974</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>52.346704908646345</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>24.653712814818697</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7">
+        <v>52.346704908646345</v>
+      </c>
+      <c r="H7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="61">
+        <f>GETPIVOTDATA("StdDevp of Vendas",$A$3)-B2</f>
+        <v>1.5775161253307743</v>
+      </c>
+      <c r="F9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F11" s="61">
+        <v>33.868608151124846</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B85878F-6CF7-0140-A179-1418EE20569D}">
+  <dimension ref="A1:AE50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="8"/>
+    <col min="7" max="7" width="13.33203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="8"/>
+    <col min="9" max="9" width="17.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="8" customWidth="1"/>
+    <col min="13" max="13" width="25.1640625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="13" style="8" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" style="8" customWidth="1"/>
+    <col min="17" max="17" width="24.1640625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10.83203125" style="8"/>
+    <col min="21" max="21" width="22.33203125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="10.83203125" style="8"/>
+    <col min="26" max="26" width="20.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="9">
+        <v>286</v>
+      </c>
+      <c r="D2" s="9">
+        <v>297.5</v>
+      </c>
+      <c r="E2" s="9">
+        <f>(C2-D2)^2</f>
+        <v>132.25</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9">
+        <v>147</v>
+      </c>
+      <c r="D3" s="9">
+        <v>149</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E14" si="0">(C3-D3)^2</f>
+        <v>4</v>
+      </c>
+      <c r="G3" s="8">
+        <f>_xlfn.STDEV.P(C2:C14)</f>
+        <v>52.346704908646345</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="12">
+        <v>13</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9">
+        <v>169</v>
+      </c>
+      <c r="D4" s="9">
+        <v>184</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="12">
+        <v>14</v>
+      </c>
+      <c r="X4" s="8">
+        <v>184</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9">
+        <v>172</v>
+      </c>
+      <c r="D5" s="9">
+        <v>170</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="12">
+        <v>15</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9">
+        <v>176</v>
+      </c>
+      <c r="D6" s="9">
+        <v>184</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="8">
+        <v>24.63</v>
+      </c>
+      <c r="I6" s="12">
+        <v>6</v>
+      </c>
+      <c r="J6" s="12">
+        <f>I6/$I$9</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="X6"/>
+      <c r="Y6" s="62">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE6" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9">
+        <v>253</v>
+      </c>
+      <c r="D7" s="9">
+        <v>250</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="8">
+        <v>10.69</v>
+      </c>
+      <c r="I7" s="12">
+        <v>4</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" ref="J7:J8" si="1">I7/$I$9</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="12">
+        <f>AVERAGE(M3:M5)</f>
+        <v>14</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="X7"/>
+      <c r="Y7" s="62">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE7" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9">
+        <v>238</v>
+      </c>
+      <c r="D8" s="9">
+        <v>250</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="56">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="I8" s="57">
+        <v>3</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="1"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="12">
+        <f>_xlfn.STDEV.S(M3:M5)</f>
+        <v>1</v>
+      </c>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9">
+        <v>151</v>
+      </c>
+      <c r="D9" s="9">
+        <v>149</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="12">
+        <f>SUM(I6:I8)</f>
+        <v>13</v>
+      </c>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9">
+        <v>168</v>
+      </c>
+      <c r="D10" s="9">
+        <v>170</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="12">
+        <v>6</v>
+      </c>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+    </row>
+    <row r="11" spans="1:31" ht="31" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9">
+        <v>264</v>
+      </c>
+      <c r="D11" s="9">
+        <v>250</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="G11" s="30">
+        <f>SUMPRODUCT(H6:H8,J6:J8)</f>
+        <v>18.466923076923077</v>
+      </c>
+      <c r="H11"/>
+      <c r="L11" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="9">
+        <v>207</v>
+      </c>
+      <c r="D12" s="9">
+        <v>184</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>529</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12" s="13"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="9">
+        <v>309</v>
+      </c>
+      <c r="D13" s="9">
+        <v>297.5</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>132.25</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="12">
+        <f>(M11+M10)/2</f>
+        <v>15</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9">
+        <v>245</v>
+      </c>
+      <c r="D14" s="9">
+        <v>250</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G14" s="31">
+        <f>G3-G11</f>
+        <v>33.879781831723264</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="12"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C15" s="8">
+        <f>AVERAGE(C2:C14)</f>
+        <v>214.23076923076923</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="9">
+        <f>AVERAGE(E2:E14)</f>
+        <v>113.26923076923077</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15" s="14"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <f>(C4+C6+C12)/3</f>
+        <v>184</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="8">
+        <f>SQRT(E15)</f>
+        <v>10.6428018288997</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16" s="14"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C17" s="37">
+        <f>CORREL(D2:D14,C2:C14)</f>
+        <v>0.97911365158692221</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B18" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="38">
+        <f>C17^2</f>
+        <v>0.95866354272387688</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D19" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="8">
+        <v>169</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="12">
+        <v>58.48</v>
+      </c>
+      <c r="I20" s="12">
+        <v>5</v>
+      </c>
+      <c r="J20" s="32">
+        <f>I20/13</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="8">
+        <v>176</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="12">
+        <v>45.95</v>
+      </c>
+      <c r="I21" s="12">
+        <v>8</v>
+      </c>
+      <c r="J21" s="32">
+        <f>I21/13</f>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="8">
+        <v>207</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C23" s="8">
+        <f>_xlfn.STDEV.P(C20:C22)</f>
+        <v>16.512621435334449</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="P23"/>
+      <c r="Q23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="8">
+        <f>SUMPRODUCT(H20:H21,J20:J21)</f>
+        <v>50.769230769230774</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="P24"/>
+      <c r="Q24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="W24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB24" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B25" s="8">
+        <f>AVERAGE(C20:C22)</f>
+        <v>184</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="P25"/>
+      <c r="Q25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S25" s="9">
+        <v>169</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="W25" s="9">
+        <v>147</v>
+      </c>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB25" s="9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="G26" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="P26"/>
+      <c r="Q26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S26" s="9">
+        <v>176</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W26" s="9">
+        <v>172</v>
+      </c>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB26" s="9">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="G27" s="8">
+        <f>G3-G24</f>
+        <v>1.5774741394155711</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="P27"/>
+      <c r="Q27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S27" s="9">
+        <v>207</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="W27" s="9">
+        <v>151</v>
+      </c>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB27" s="9">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="S28" s="36">
+        <f>AVERAGE(S25:S27)</f>
+        <v>184</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W28" s="9">
+        <v>168</v>
+      </c>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB28" s="9">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB29" s="9">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="8">
+        <v>147</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="U30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB30" s="9">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="8">
+        <v>172</v>
+      </c>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="U31" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V31" s="35">
+        <f>(W26+W28)/2</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="8">
+        <v>151</v>
+      </c>
+      <c r="U32" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="8">
+        <v>168</v>
+      </c>
+      <c r="U33" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V33" s="35">
+        <v>149</v>
+      </c>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35">
+        <f>(AB25+AB29)/2</f>
+        <v>297.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="8">
+        <f>(C30+C32)/2</f>
+        <v>149</v>
+      </c>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35">
+        <f>(AB26+AB27+AB30+AB28)/4</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="8">
+        <f>(C31+C33)/2</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="8">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="8">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="8">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="8">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="8">
+        <f>(C42+C43+C44+C46)/4</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="8">
+        <f>(C45+C41)/2</f>
+        <v>297.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C18" xr:uid="{6B85878F-6CF7-0140-A179-1418EE20569D}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733CAE0A-C238-684E-9165-241DE7288EEA}">
+  <dimension ref="B2:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D4:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="15">
+        <v>10</v>
+      </c>
+      <c r="E2" s="15">
+        <v>12.5</v>
+      </c>
+      <c r="F2" s="15">
+        <v>15</v>
+      </c>
+      <c r="G2" s="15">
+        <v>17.5</v>
+      </c>
+      <c r="H2" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B3" s="16">
+        <v>350</v>
+      </c>
+      <c r="C3" s="16">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16">
+        <f>B3</f>
+        <v>350</v>
+      </c>
+      <c r="E3" s="16">
+        <v>365</v>
+      </c>
+      <c r="F3" s="16">
+        <v>340</v>
+      </c>
+      <c r="G3" s="16">
+        <v>350</v>
+      </c>
+      <c r="H3" s="16">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B4" s="16">
+        <v>400</v>
+      </c>
+      <c r="C4" s="16">
+        <v>20</v>
+      </c>
+      <c r="D4" s="16">
+        <v>479.29</v>
+      </c>
+      <c r="E4" s="16">
+        <v>486.92</v>
+      </c>
+      <c r="F4" s="16">
+        <v>503.33</v>
+      </c>
+      <c r="G4" s="16">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H4" s="16">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B5" s="16">
+        <v>470</v>
+      </c>
+      <c r="C5" s="16">
+        <v>30</v>
+      </c>
+      <c r="D5" s="16">
+        <v>479.29</v>
+      </c>
+      <c r="E5" s="16">
+        <v>486.92</v>
+      </c>
+      <c r="F5" s="16">
+        <v>503.33</v>
+      </c>
+      <c r="G5" s="16">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H5" s="16">
+        <v>537.78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
+        <v>550</v>
+      </c>
+      <c r="C6" s="16">
+        <v>25</v>
+      </c>
+      <c r="D6" s="16">
+        <v>479.29</v>
+      </c>
+      <c r="E6" s="16">
+        <v>486.92</v>
+      </c>
+      <c r="F6" s="16">
+        <v>503.33</v>
+      </c>
+      <c r="G6" s="16">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H6" s="16">
+        <v>537.78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B7" s="16">
+        <v>620</v>
+      </c>
+      <c r="C7" s="16">
+        <v>37.5</v>
+      </c>
+      <c r="D7" s="16">
+        <v>479.29</v>
+      </c>
+      <c r="E7" s="16">
+        <v>486.92</v>
+      </c>
+      <c r="F7" s="16">
+        <v>503.33</v>
+      </c>
+      <c r="G7" s="16">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H7" s="16">
+        <v>537.78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
+        <v>380</v>
+      </c>
+      <c r="C8" s="16">
+        <v>17.5</v>
+      </c>
+      <c r="D8" s="16">
+        <v>479.29</v>
+      </c>
+      <c r="E8" s="16">
+        <v>486.92</v>
+      </c>
+      <c r="F8" s="16">
+        <v>503.33</v>
+      </c>
+      <c r="G8" s="16">
+        <v>350</v>
+      </c>
+      <c r="H8" s="16">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B9" s="16">
+        <v>290</v>
+      </c>
+      <c r="C9" s="16">
+        <v>15</v>
+      </c>
+      <c r="D9" s="16">
+        <v>479.29</v>
+      </c>
+      <c r="E9" s="16">
+        <v>486.92</v>
+      </c>
+      <c r="F9" s="16">
+        <v>340</v>
+      </c>
+      <c r="G9" s="16">
+        <v>350</v>
+      </c>
+      <c r="H9" s="16">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <v>490</v>
+      </c>
+      <c r="C10" s="16">
+        <v>25</v>
+      </c>
+      <c r="D10" s="16">
+        <v>479.29</v>
+      </c>
+      <c r="E10" s="16">
+        <v>486.92</v>
+      </c>
+      <c r="F10" s="16">
+        <v>503.33</v>
+      </c>
+      <c r="G10" s="16">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H10" s="16">
+        <v>537.78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
+        <v>580</v>
+      </c>
+      <c r="C11" s="16">
+        <v>27.5</v>
+      </c>
+      <c r="D11" s="16">
+        <v>479.29</v>
+      </c>
+      <c r="E11" s="16">
+        <v>486.92</v>
+      </c>
+      <c r="F11" s="16">
+        <v>503.33</v>
+      </c>
+      <c r="G11" s="16">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H11" s="16">
+        <v>537.78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>610</v>
+      </c>
+      <c r="C12" s="16">
+        <v>32.5</v>
+      </c>
+      <c r="D12" s="16">
+        <v>479.29</v>
+      </c>
+      <c r="E12" s="16">
+        <v>486.92</v>
+      </c>
+      <c r="F12" s="16">
+        <v>503.33</v>
+      </c>
+      <c r="G12" s="16">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H12" s="16">
+        <v>537.78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B13" s="16">
+        <v>560</v>
+      </c>
+      <c r="C13" s="16">
+        <v>30</v>
+      </c>
+      <c r="D13" s="16">
+        <v>479.29</v>
+      </c>
+      <c r="E13" s="16">
+        <v>486.92</v>
+      </c>
+      <c r="F13" s="16">
+        <v>503.33</v>
+      </c>
+      <c r="G13" s="16">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H13" s="16">
+        <v>537.78</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>420</v>
+      </c>
+      <c r="C14" s="16">
+        <v>20</v>
+      </c>
+      <c r="D14" s="16">
+        <v>479.29</v>
+      </c>
+      <c r="E14" s="16">
+        <v>486.92</v>
+      </c>
+      <c r="F14" s="16">
+        <v>503.33</v>
+      </c>
+      <c r="G14" s="16">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H14" s="16">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B15" s="16">
+        <v>450</v>
+      </c>
+      <c r="C15" s="16">
+        <v>27.5</v>
+      </c>
+      <c r="D15" s="16">
+        <v>479.29</v>
+      </c>
+      <c r="E15" s="16">
+        <v>486.92</v>
+      </c>
+      <c r="F15" s="16">
+        <v>503.33</v>
+      </c>
+      <c r="G15" s="16">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H15" s="16">
+        <v>537.78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
+        <v>510</v>
+      </c>
+      <c r="C16" s="16">
+        <v>30</v>
+      </c>
+      <c r="D16" s="16">
+        <v>479.29</v>
+      </c>
+      <c r="E16" s="16">
+        <v>486.92</v>
+      </c>
+      <c r="F16" s="16">
+        <v>503.33</v>
+      </c>
+      <c r="G16" s="16">
+        <v>514.54999999999995</v>
+      </c>
+      <c r="H16" s="16">
+        <v>537.78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="B17" s="18">
+        <v>380</v>
+      </c>
+      <c r="C17" s="18">
+        <v>12.5</v>
+      </c>
+      <c r="D17" s="18">
+        <v>479.29</v>
+      </c>
+      <c r="E17" s="18">
+        <v>365</v>
+      </c>
+      <c r="F17" s="18">
+        <v>340</v>
+      </c>
+      <c r="G17" s="18">
+        <v>350</v>
+      </c>
+      <c r="H17" s="18">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="26" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="21">
+        <f>SQRT(SUMXMY2(D3:D17,B3:B17))</f>
+        <v>354.81383484864284</v>
+      </c>
+      <c r="E18" s="21">
+        <f>SQRT(SUMXMY2(E3:E17,$B$3:$B$17))</f>
+        <v>340.18660055916371</v>
+      </c>
+      <c r="F18" s="21">
+        <f>SQRT(SUMXMY2(F3:F17,$B$3:$B$17))</f>
+        <v>278.3283435081666</v>
+      </c>
+      <c r="G18" s="21">
+        <f>SQRT(SUMXMY2(G3:G17,$B$3:$B$17))</f>
+        <v>249.14398949202047</v>
+      </c>
+      <c r="H18" s="21">
+        <f>SQRT(SUMXMY2(H3:H17,$B$3:$B$17))</f>
+        <v>200.38851164675086</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="D19" s="17"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f>(B17+B3)/2</f>
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5F11D4-ABF0-6346-AF53-5B907184A795}">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView topLeftCell="S10" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView topLeftCell="U11" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23:AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4827,64 +7168,74 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <f>50%*E4+50%*E6</f>
+        <v>0.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
       <c r="I2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C4" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="42">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
       </c>
       <c r="M4" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N4" s="42">
         <v>0</v>
@@ -4893,13 +7244,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>98</v>
-      </c>
-      <c r="W4" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="X4" s="49">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="W4" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="X4" s="47" t="s">
+        <v>124</v>
       </c>
       <c r="Z4" t="s">
         <v>55</v>
@@ -4907,130 +7258,133 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C5" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="42">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>124</v>
       </c>
       <c r="M5" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N5" s="42">
         <v>0</v>
       </c>
-      <c r="W5" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="X5" s="49">
-        <v>0</v>
+      <c r="W5" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="X5" s="47" t="s">
+        <v>124</v>
       </c>
       <c r="Z5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="43" t="s">
         <v>101</v>
-      </c>
-      <c r="D6" s="44">
-        <v>1</v>
-      </c>
-      <c r="M6" s="43" t="s">
-        <v>102</v>
       </c>
       <c r="N6" s="44">
         <v>1</v>
       </c>
-      <c r="W6" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="X6" s="49">
-        <v>0</v>
+      <c r="W6" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="X6" s="47" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="44">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>125</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N7" s="44">
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>100</v>
-      </c>
-      <c r="W7" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="X7" s="50">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="W7" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="X7" s="48" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>100</v>
+      </c>
+      <c r="W8" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="Q8" t="s">
-        <v>101</v>
-      </c>
-      <c r="W8" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="X8" s="50">
-        <v>1</v>
+      <c r="X8" s="48" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q9" t="s">
-        <v>102</v>
-      </c>
-      <c r="W9" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="X9" s="50">
-        <v>1</v>
+      <c r="W9" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" s="48" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
         <v>103</v>
-      </c>
-      <c r="D11" t="s">
-        <v>104</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -5038,11 +7392,14 @@
       <c r="F11" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G11" t="s">
+        <v>126</v>
+      </c>
       <c r="M11" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" t="s">
         <v>103</v>
-      </c>
-      <c r="N11" t="s">
-        <v>104</v>
       </c>
       <c r="O11" t="s">
         <v>30</v>
@@ -5050,11 +7407,11 @@
       <c r="P11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W11" s="51" t="s">
+      <c r="W11" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="X11" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="X11" s="19" t="s">
-        <v>118</v>
       </c>
       <c r="Y11" s="19" t="s">
         <v>30</v>
@@ -5065,7 +7422,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5079,10 +7436,10 @@
         <v>0.5</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -5096,12 +7453,12 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>112</v>
-      </c>
-      <c r="W12" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="X12" s="53">
+        <v>111</v>
+      </c>
+      <c r="W12" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="X12" s="50">
         <v>2</v>
       </c>
       <c r="Y12" s="19">
@@ -5115,7 +7472,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5124,8 +7481,11 @@
         <f>1-E12</f>
         <v>0.5</v>
       </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
       <c r="M13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -5135,12 +7495,12 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>113</v>
-      </c>
-      <c r="W13" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="X13" s="53">
+        <v>112</v>
+      </c>
+      <c r="W13" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="X13" s="50">
         <v>1</v>
       </c>
       <c r="Y13" s="19">
@@ -5165,27 +7525,27 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="Z15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>115</v>
-      </c>
-      <c r="W16" s="50" t="s">
-        <v>105</v>
+        <v>114</v>
+      </c>
+      <c r="W16" s="48" t="s">
+        <v>104</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y16" s="3" t="s">
         <v>30</v>
@@ -5196,10 +7556,10 @@
     </row>
     <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
@@ -5208,10 +7568,10 @@
         <v>8</v>
       </c>
       <c r="M17" s="43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O17" t="s">
         <v>30</v>
@@ -5219,8 +7579,8 @@
       <c r="P17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W17" s="48" t="s">
-        <v>106</v>
+      <c r="W17" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="X17" s="3">
         <v>1</v>
@@ -5236,7 +7596,7 @@
     </row>
     <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5248,7 +7608,7 @@
         <v>0.5</v>
       </c>
       <c r="M18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -5261,8 +7621,8 @@
         <f>1-O19^2-O18^2</f>
         <v>0</v>
       </c>
-      <c r="W18" s="48" t="s">
-        <v>102</v>
+      <c r="W18" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="X18" s="3">
         <v>2</v>
@@ -5274,7 +7634,7 @@
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -5283,7 +7643,7 @@
         <v>0.5</v>
       </c>
       <c r="M19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -5301,27 +7661,29 @@
         <v>2</v>
       </c>
       <c r="W20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="W21" s="46">
-        <f>50%*Z12+50%*Z17</f>
-        <v>0.44444444444444442</v>
+      <c r="W21" s="53">
+        <v>0.44</v>
       </c>
       <c r="X21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>116</v>
+        <v>128</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.2">
@@ -5329,12 +7691,15 @@
         <f>50%*F12+50%*F18</f>
         <v>0.5</v>
       </c>
-      <c r="M23" s="47">
+      <c r="F23" t="s">
+        <v>129</v>
+      </c>
+      <c r="M23" s="46">
         <f>50%*P12+50%*P18</f>
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5343,11 +7708,265 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02665EF5-7D04-6646-B906-7A99F4998DE2}">
+  <dimension ref="K1:N30"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <f>1-M3^2-M4^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K5" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K11" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K13" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" s="55">
+        <f>L21/7</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="18" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>133</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>134</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23" s="7">
+        <f>1-L17</f>
+        <v>0.4285714285714286</v>
+      </c>
+    </row>
+    <row r="24" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>104</v>
+      </c>
+      <c r="L24" t="s">
+        <v>103</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>133</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" s="7">
+        <f>1-M26</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="N25" s="3">
+        <f>1-M25^2-M26^2</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="26" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>134</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26" s="7">
+        <f>L26/L27</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <f>L17*N19+L23*N25</f>
+        <v>0.47619047619047616</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1BECA9-81D9-5541-BDDC-E2E0A6318C0C}">
   <dimension ref="A4:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5451,7 +8070,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="54">
+      <c r="A16" s="51">
         <f>3/8</f>
         <v>0.375</v>
       </c>
@@ -5541,7 +8160,7 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="55">
+      <c r="B22" s="52">
         <f>5/8</f>
         <v>0.625</v>
       </c>
@@ -5899,7 +8518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8266EA99-509C-1348-B370-75AA1D1143DE}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -6089,7 +8708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF43D40-04AD-A642-AA9E-40920CE4DAD5}">
   <dimension ref="A3:B7"/>
   <sheetViews>
@@ -6148,7 +8767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D8552A-42F2-9A4D-9168-EC2FF3C539C0}">
   <dimension ref="A3:C7"/>
   <sheetViews>
@@ -6166,13 +8785,13 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
         <v>92</v>
-      </c>
-      <c r="C3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6210,7 +8829,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>52.346704908646345</v>
@@ -6224,7 +8843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EF2B2B-3F36-954E-BB46-B56FE9012A6E}">
   <dimension ref="A3:B13"/>
   <sheetViews>
@@ -6241,10 +8860,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -6321,7 +8940,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13">
         <v>214.23076923076923</v>
@@ -6332,1327 +8951,93 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B85878F-6CF7-0140-A179-1418EE20569D}">
-  <dimension ref="A1:AB36"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86ED6291-A9FD-5349-8238-5A0CDF422E3F}">
+  <dimension ref="A3:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="P2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="8"/>
-    <col min="7" max="7" width="13.33203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="8"/>
-    <col min="9" max="9" width="17.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.5" style="8" customWidth="1"/>
-    <col min="13" max="13" width="25.1640625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="13" style="8" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21" style="8" customWidth="1"/>
-    <col min="17" max="17" width="24.1640625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="14.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10.83203125" style="8"/>
-    <col min="21" max="21" width="22.33203125" style="8" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="10.83203125" style="8"/>
-    <col min="26" max="26" width="20.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="9">
-        <v>286</v>
-      </c>
-      <c r="D2" s="9">
-        <v>297.5</v>
-      </c>
-      <c r="E2" s="9">
-        <f>(D2-C2)^2</f>
-        <v>132.25</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="9">
-        <v>147</v>
-      </c>
-      <c r="D3" s="9">
-        <v>149</v>
-      </c>
-      <c r="E3" s="9">
-        <f t="shared" ref="E3:E14" si="0">(D3-C3)^2</f>
-        <v>4</v>
-      </c>
-      <c r="G3" s="8">
-        <f>_xlfn.STDEV.P(C2:C14)</f>
-        <v>52.346704908646345</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="12">
-        <v>13</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="9">
-        <v>169</v>
-      </c>
-      <c r="D4" s="9">
-        <v>184</v>
-      </c>
-      <c r="E4" s="9">
-        <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="12">
-        <v>14</v>
-      </c>
-      <c r="X4" s="8">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="9">
-        <v>172</v>
-      </c>
-      <c r="D5" s="9">
-        <v>170</v>
-      </c>
-      <c r="E5" s="9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="12">
-        <v>15</v>
-      </c>
-      <c r="N5" s="12"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="9">
-        <v>176</v>
-      </c>
-      <c r="D6" s="9">
-        <v>184</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="8">
-        <v>24.63</v>
-      </c>
-      <c r="I6" s="12">
-        <v>6</v>
-      </c>
-      <c r="J6" s="12">
-        <f>I6/$I$9</f>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9">
-        <v>253</v>
-      </c>
-      <c r="D7" s="9">
-        <v>250</v>
-      </c>
-      <c r="E7" s="9">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="8">
-        <v>10.69</v>
-      </c>
-      <c r="I7" s="12">
-        <v>4</v>
-      </c>
-      <c r="J7" s="12">
-        <f t="shared" ref="J7:J8" si="1">I7/$I$9</f>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" s="12">
-        <f>AVERAGE(M3:M5)</f>
-        <v>14</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="12"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="9">
-        <v>238</v>
-      </c>
-      <c r="D8" s="9">
-        <v>250</v>
-      </c>
-      <c r="E8" s="9">
-        <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="8">
-        <v>16.510000000000002</v>
-      </c>
-      <c r="I8" s="12">
-        <v>3</v>
-      </c>
-      <c r="J8" s="12">
-        <f t="shared" si="1"/>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="12">
-        <f>_xlfn.STDEV.S(M3:M5)</f>
-        <v>1</v>
-      </c>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="9">
-        <v>151</v>
-      </c>
-      <c r="D9" s="9">
-        <v>149</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="12">
-        <f>SUM(I6:I8)</f>
-        <v>13</v>
-      </c>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="9">
-        <v>168</v>
-      </c>
-      <c r="D10" s="9">
-        <v>170</v>
-      </c>
-      <c r="E10" s="9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" s="12">
-        <v>6</v>
-      </c>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-    </row>
-    <row r="11" spans="1:26" ht="31" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="9">
-        <v>264</v>
-      </c>
-      <c r="D11" s="9">
-        <v>250</v>
-      </c>
-      <c r="E11" s="9">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-      <c r="G11" s="30">
-        <f>SUMPRODUCT(H6:H8,J6:J8)</f>
-        <v>18.466923076923077</v>
-      </c>
-      <c r="H11"/>
-      <c r="L11" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="9">
-        <v>207</v>
-      </c>
-      <c r="D12" s="9">
-        <v>184</v>
-      </c>
-      <c r="E12" s="9">
-        <f t="shared" si="0"/>
-        <v>529</v>
-      </c>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12" s="13"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="9">
-        <v>309</v>
-      </c>
-      <c r="D13" s="9">
-        <v>297.5</v>
-      </c>
-      <c r="E13" s="9">
-        <f t="shared" si="0"/>
-        <v>132.25</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="12">
-        <f>(M11+M10)/2</f>
-        <v>15</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="9">
-        <v>245</v>
-      </c>
-      <c r="D14" s="9">
-        <v>250</v>
-      </c>
-      <c r="E14" s="9">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G14" s="31">
-        <f>G3-G11</f>
-        <v>33.879781831723264</v>
-      </c>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="12">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="12"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D15" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="12">
-        <f>AVERAGE(E2:E14)</f>
-        <v>113.26923076923077</v>
-      </c>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15" s="14"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D16" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16" s="14"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="C17" s="37">
-        <f>CORREL(C2:C14,D2:D14)</f>
-        <v>0.97911365158692221</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B18" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="38">
-        <f>C17^2</f>
-        <v>0.95866354272387688</v>
-      </c>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="G19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="G20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="12">
-        <v>58.48</v>
-      </c>
-      <c r="I20" s="12">
-        <v>5</v>
-      </c>
-      <c r="J20" s="32">
-        <f>I20/13</f>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="G21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="12">
-        <v>45.95</v>
-      </c>
-      <c r="I21" s="12">
-        <v>8</v>
-      </c>
-      <c r="J21" s="32">
-        <f>I21/13</f>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="G23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="P23"/>
-      <c r="Q23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="G24" s="8">
-        <f>SUMPRODUCT(H20:H21,J20:J21)</f>
-        <v>50.769230769230774</v>
-      </c>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="P24"/>
-      <c r="Q24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="U24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB24" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="P25"/>
-      <c r="Q25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="S25" s="9">
-        <v>169</v>
-      </c>
-      <c r="U25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="V25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="W25" s="9">
-        <v>147</v>
-      </c>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB25" s="9">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="G26" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="P26"/>
-      <c r="Q26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="S26" s="9">
-        <v>176</v>
-      </c>
-      <c r="U26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="V26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="W26" s="9">
-        <v>172</v>
-      </c>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB26" s="9">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="G27" s="8">
-        <f>G3-G24</f>
-        <v>1.5774741394155711</v>
-      </c>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="P27"/>
-      <c r="Q27" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="S27" s="9">
-        <v>207</v>
-      </c>
-      <c r="U27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="V27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="W27" s="9">
-        <v>151</v>
-      </c>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB27" s="9">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="S28" s="36">
-        <f>AVERAGE(S25:S27)</f>
-        <v>184</v>
-      </c>
-      <c r="U28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="V28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="W28" s="9">
-        <v>168</v>
-      </c>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB28" s="9">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB29" s="9">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="U30" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB30" s="9">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="U31" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="V31" s="35">
-        <f>(W26+W28)/2</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="U32" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="21:27" x14ac:dyDescent="0.3">
-      <c r="U33" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="V33" s="35">
-        <v>149</v>
-      </c>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="35">
-        <f>(AB25+AB29)/2</f>
-        <v>297.5</v>
-      </c>
-    </row>
-    <row r="36" spans="21:27" x14ac:dyDescent="0.3">
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35">
-        <f>(AB26+AB27+AB30+AB28)/4</f>
-        <v>250</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C14" xr:uid="{6B85878F-6CF7-0140-A179-1418EE20569D}"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733CAE0A-C238-684E-9165-241DE7288EEA}">
-  <dimension ref="B2:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D4:D17"/>
+    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="15">
-        <v>10</v>
-      </c>
-      <c r="E2" s="15">
-        <v>12.5</v>
-      </c>
-      <c r="F2" s="15">
-        <v>15</v>
-      </c>
-      <c r="G2" s="15">
-        <v>17.5</v>
-      </c>
-      <c r="H2" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B3" s="16">
-        <v>350</v>
-      </c>
-      <c r="C3" s="16">
-        <v>10</v>
-      </c>
-      <c r="D3" s="16">
-        <f>B3</f>
-        <v>350</v>
-      </c>
-      <c r="E3" s="16">
-        <v>365</v>
-      </c>
-      <c r="F3" s="16">
-        <v>340</v>
-      </c>
-      <c r="G3" s="16">
-        <v>350</v>
-      </c>
-      <c r="H3" s="16">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B4" s="16">
-        <v>400</v>
-      </c>
-      <c r="C4" s="16">
-        <v>20</v>
-      </c>
-      <c r="D4" s="16">
-        <v>479.29</v>
-      </c>
-      <c r="E4" s="16">
-        <v>486.92</v>
-      </c>
-      <c r="F4" s="16">
-        <v>503.33</v>
-      </c>
-      <c r="G4" s="16">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H4" s="16">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B5" s="16">
-        <v>470</v>
-      </c>
-      <c r="C5" s="16">
-        <v>30</v>
-      </c>
-      <c r="D5" s="16">
-        <v>479.29</v>
-      </c>
-      <c r="E5" s="16">
-        <v>486.92</v>
-      </c>
-      <c r="F5" s="16">
-        <v>503.33</v>
-      </c>
-      <c r="G5" s="16">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H5" s="16">
-        <v>537.78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
-        <v>550</v>
-      </c>
-      <c r="C6" s="16">
-        <v>25</v>
-      </c>
-      <c r="D6" s="16">
-        <v>479.29</v>
-      </c>
-      <c r="E6" s="16">
-        <v>486.92</v>
-      </c>
-      <c r="F6" s="16">
-        <v>503.33</v>
-      </c>
-      <c r="G6" s="16">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H6" s="16">
-        <v>537.78</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B7" s="16">
-        <v>620</v>
-      </c>
-      <c r="C7" s="16">
-        <v>37.5</v>
-      </c>
-      <c r="D7" s="16">
-        <v>479.29</v>
-      </c>
-      <c r="E7" s="16">
-        <v>486.92</v>
-      </c>
-      <c r="F7" s="16">
-        <v>503.33</v>
-      </c>
-      <c r="G7" s="16">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H7" s="16">
-        <v>537.78</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
-        <v>380</v>
-      </c>
-      <c r="C8" s="16">
-        <v>17.5</v>
-      </c>
-      <c r="D8" s="16">
-        <v>479.29</v>
-      </c>
-      <c r="E8" s="16">
-        <v>486.92</v>
-      </c>
-      <c r="F8" s="16">
-        <v>503.33</v>
-      </c>
-      <c r="G8" s="16">
-        <v>350</v>
-      </c>
-      <c r="H8" s="16">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
-        <v>290</v>
-      </c>
-      <c r="C9" s="16">
-        <v>15</v>
-      </c>
-      <c r="D9" s="16">
-        <v>479.29</v>
-      </c>
-      <c r="E9" s="16">
-        <v>486.92</v>
-      </c>
-      <c r="F9" s="16">
-        <v>340</v>
-      </c>
-      <c r="G9" s="16">
-        <v>350</v>
-      </c>
-      <c r="H9" s="16">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
-        <v>490</v>
-      </c>
-      <c r="C10" s="16">
-        <v>25</v>
-      </c>
-      <c r="D10" s="16">
-        <v>479.29</v>
-      </c>
-      <c r="E10" s="16">
-        <v>486.92</v>
-      </c>
-      <c r="F10" s="16">
-        <v>503.33</v>
-      </c>
-      <c r="G10" s="16">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H10" s="16">
-        <v>537.78</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B11" s="16">
-        <v>580</v>
-      </c>
-      <c r="C11" s="16">
-        <v>27.5</v>
-      </c>
-      <c r="D11" s="16">
-        <v>479.29</v>
-      </c>
-      <c r="E11" s="16">
-        <v>486.92</v>
-      </c>
-      <c r="F11" s="16">
-        <v>503.33</v>
-      </c>
-      <c r="G11" s="16">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H11" s="16">
-        <v>537.78</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
-        <v>610</v>
-      </c>
-      <c r="C12" s="16">
-        <v>32.5</v>
-      </c>
-      <c r="D12" s="16">
-        <v>479.29</v>
-      </c>
-      <c r="E12" s="16">
-        <v>486.92</v>
-      </c>
-      <c r="F12" s="16">
-        <v>503.33</v>
-      </c>
-      <c r="G12" s="16">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H12" s="16">
-        <v>537.78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B13" s="16">
-        <v>560</v>
-      </c>
-      <c r="C13" s="16">
-        <v>30</v>
-      </c>
-      <c r="D13" s="16">
-        <v>479.29</v>
-      </c>
-      <c r="E13" s="16">
-        <v>486.92</v>
-      </c>
-      <c r="F13" s="16">
-        <v>503.33</v>
-      </c>
-      <c r="G13" s="16">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H13" s="16">
-        <v>537.78</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
-        <v>420</v>
-      </c>
-      <c r="C14" s="16">
-        <v>20</v>
-      </c>
-      <c r="D14" s="16">
-        <v>479.29</v>
-      </c>
-      <c r="E14" s="16">
-        <v>486.92</v>
-      </c>
-      <c r="F14" s="16">
-        <v>503.33</v>
-      </c>
-      <c r="G14" s="16">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H14" s="16">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
-        <v>450</v>
-      </c>
-      <c r="C15" s="16">
-        <v>27.5</v>
-      </c>
-      <c r="D15" s="16">
-        <v>479.29</v>
-      </c>
-      <c r="E15" s="16">
-        <v>486.92</v>
-      </c>
-      <c r="F15" s="16">
-        <v>503.33</v>
-      </c>
-      <c r="G15" s="16">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H15" s="16">
-        <v>537.78</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
-        <v>510</v>
-      </c>
-      <c r="C16" s="16">
-        <v>30</v>
-      </c>
-      <c r="D16" s="16">
-        <v>479.29</v>
-      </c>
-      <c r="E16" s="16">
-        <v>486.92</v>
-      </c>
-      <c r="F16" s="16">
-        <v>503.33</v>
-      </c>
-      <c r="G16" s="16">
-        <v>514.54999999999995</v>
-      </c>
-      <c r="H16" s="16">
-        <v>537.78</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B17" s="18">
-        <v>380</v>
-      </c>
-      <c r="C17" s="18">
-        <v>12.5</v>
-      </c>
-      <c r="D17" s="18">
-        <v>479.29</v>
-      </c>
-      <c r="E17" s="18">
-        <v>365</v>
-      </c>
-      <c r="F17" s="18">
-        <v>340</v>
-      </c>
-      <c r="G17" s="18">
-        <v>350</v>
-      </c>
-      <c r="H17" s="18">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="26" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="21">
-        <f>SQRT(SUMXMY2(D3:D17,B3:B17))</f>
-        <v>354.81383484864284</v>
-      </c>
-      <c r="E18" s="21">
-        <f>SQRT(SUMXMY2(E3:E17,$B$3:$B$17))</f>
-        <v>340.18660055916371</v>
-      </c>
-      <c r="F18" s="21">
-        <f>SQRT(SUMXMY2(F3:F17,$B$3:$B$17))</f>
-        <v>278.3283435081666</v>
-      </c>
-      <c r="G18" s="21">
-        <f>SQRT(SUMXMY2(G3:G17,$B$3:$B$17))</f>
-        <v>249.14398949202047</v>
-      </c>
-      <c r="H18" s="21">
-        <f>SQRT(SUMXMY2(H3:H17,$B$3:$B$17))</f>
-        <v>200.38851164675086</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="D19" s="17"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D22">
-        <f>(B17+B3)/2</f>
-        <v>365</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>24.653712814818697</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>265.83333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>9.6695398029068578</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>11.5</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>297.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <v>24.653712814818697</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>265.83333333333331</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/04 - DecisionTrees/DecisionTreeFundamentals.xlsx
+++ b/04 - DecisionTrees/DecisionTreeFundamentals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbergmann/Documents/GitHub/MachineLearning/04 - DecisionTrees/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbergmann/Documents/GitHub/GitHub-Projects/MachineLearning/04 - DecisionTrees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C684F2D1-CE84-714C-AB11-92EEF0140C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD82335F-B5CE-BF4D-A7C1-0E9237030C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5300" yWindow="3360" windowWidth="39500" windowHeight="20340" activeTab="11" xr2:uid="{556A7384-D044-9641-B2C3-2207606EFCB5}"/>
+    <workbookView xWindow="5000" yWindow="680" windowWidth="39500" windowHeight="20340" activeTab="3" xr2:uid="{556A7384-D044-9641-B2C3-2207606EFCB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Introdução" sheetId="7" r:id="rId1"/>
@@ -32,8 +32,8 @@
   </definedNames>
   <calcPr calcId="191029" iterate="1" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId14"/>
-    <pivotCache cacheId="5" r:id="rId15"/>
+    <pivotCache cacheId="0" r:id="rId14"/>
+    <pivotCache cacheId="1" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="155">
   <si>
     <t>Classe 1</t>
   </si>
@@ -123,24 +123,12 @@
     <t>Custo</t>
   </si>
   <si>
-    <t>Sol</t>
-  </si>
-  <si>
-    <t>Vento</t>
-  </si>
-  <si>
     <t>Sim</t>
   </si>
   <si>
     <t>Não</t>
   </si>
   <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Praia</t>
-  </si>
-  <si>
     <t>Homens</t>
   </si>
   <si>
@@ -165,15 +153,6 @@
     <t>Quanto menor o Gini, maior a chance de eu acertar a classe</t>
   </si>
   <si>
-    <t>Sol = Casa</t>
-  </si>
-  <si>
-    <t>Tem Sol</t>
-  </si>
-  <si>
-    <t>Não tem Sol</t>
-  </si>
-  <si>
     <t>=3/8</t>
   </si>
   <si>
@@ -219,18 +198,9 @@
     <t>Gini (Var A)  = 75%*0,44 + 25%*0 = 0,33</t>
   </si>
   <si>
-    <t>VaR B &lt; 13</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gini </t>
   </si>
   <si>
-    <t>VaR B &gt;=13</t>
-  </si>
-  <si>
-    <t>Gini(VaR B) = 50%*0 + 50%*0,5 = 0,25</t>
-  </si>
-  <si>
     <t>Desvio Padrão</t>
   </si>
   <si>
@@ -538,6 +508,18 @@
   </si>
   <si>
     <t xml:space="preserve">Taxa de Acerto </t>
+  </si>
+  <si>
+    <t>VarB</t>
+  </si>
+  <si>
+    <t>VaR B &lt; 21</t>
+  </si>
+  <si>
+    <t>VaR B &gt;=21</t>
+  </si>
+  <si>
+    <t>Gini(VaR B 21) = 0</t>
   </si>
 </sst>
 </file>
@@ -4501,7 +4483,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DCD99BC-E49D-DA44-AD3C-B9AB72DBD9D0}" name="Tabela dinâmica6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DCD99BC-E49D-DA44-AD3C-B9AB72DBD9D0}" name="Tabela dinâmica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -4551,7 +4533,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90456FF2-D3EE-3F4B-9A19-2BED6F1DF7F0}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90456FF2-D3EE-3F4B-9A19-2BED6F1DF7F0}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -4628,7 +4610,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7AD86D36-505B-AD49-975D-7D6185C6BF3A}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7AD86D36-505B-AD49-975D-7D6185C6BF3A}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -4703,7 +4685,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2879DE7-A833-3644-BA29-2FC87E82265E}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2879DE7-A833-3644-BA29-2FC87E82265E}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -4773,7 +4755,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{306CF2A4-48B9-A645-A91F-ABF3783E6E37}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{306CF2A4-48B9-A645-A91F-ABF3783E6E37}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -4838,7 +4820,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F0AF8C07-45E6-844C-8193-6D7E82190920}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F0AF8C07-45E6-844C-8193-6D7E82190920}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -4893,9 +4875,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4933,7 +4915,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5039,7 +5021,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5181,7 +5163,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5189,10 +5171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AC4A79-EBA7-BB4C-ACEC-01838E6A6E16}">
-  <dimension ref="L5:N17"/>
+  <dimension ref="J5:N26"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5201,74 +5183,43 @@
   </cols>
   <sheetData>
     <row r="5" spans="12:14" ht="31" x14ac:dyDescent="0.35">
-      <c r="L5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="12:14" ht="31" x14ac:dyDescent="0.35">
-      <c r="L6" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>25</v>
-      </c>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="8" spans="12:14" ht="31" x14ac:dyDescent="0.35">
-      <c r="L8" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>27</v>
-      </c>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="12" spans="12:14" ht="34" x14ac:dyDescent="0.4">
       <c r="L12" s="23"/>
     </row>
     <row r="13" spans="12:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="L13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="8">
-        <v>150</v>
-      </c>
-      <c r="N13" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="24"/>
     </row>
     <row r="14" spans="12:14" ht="31" x14ac:dyDescent="0.35">
-      <c r="L14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M14" s="24">
-        <v>50</v>
-      </c>
-      <c r="N14" s="22">
-        <f>M14/M13</f>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="22"/>
     </row>
     <row r="15" spans="12:14" ht="31" x14ac:dyDescent="0.35">
-      <c r="L15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" s="22">
-        <v>100</v>
-      </c>
-      <c r="N15" s="22">
-        <f>M15/M13</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="17" spans="13:14" ht="31" x14ac:dyDescent="0.35">
-      <c r="M17" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="22">
-        <f>1-N14^2-N15^2</f>
-        <v>0.44444444444444442</v>
+      <c r="L15" s="8"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+    </row>
+    <row r="17" spans="10:14" ht="31" x14ac:dyDescent="0.35">
+      <c r="M17" s="24"/>
+      <c r="N17" s="22"/>
+    </row>
+    <row r="26" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <f>1 - (0.8^2 + 0.2^2)</f>
+        <v>0.31999999999999984</v>
       </c>
     </row>
   </sheetData>
@@ -5294,7 +5245,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B2">
         <f>GETPIVOTDATA("StdDevp of Vendas",$A$3,"Temperatura ","ameno")*D4+GETPIVOTDATA("StdDevp of Vendas",$A$3,"Temperatura ","frio")*D5+GETPIVOTDATA("StdDevp of Vendas",$A$3,"Temperatura ","quente")*D6</f>
@@ -5303,16 +5254,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5362,7 +5313,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B7">
         <v>52.346704908646345</v>
@@ -5373,12 +5324,12 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5409,14 +5360,14 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B2">
         <f>GETPIVOTDATA("StdDevp of Vendas",$A$3,"Domingo","não")*D4+GETPIVOTDATA("StdDevp of Vendas",$A$3,"Domingo","sim")*D5</f>
         <v>50.76918878331557</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G2">
         <v>18.478096757521495</v>
@@ -5424,25 +5375,25 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5501,7 +5452,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>52.346704908646345</v>
@@ -5524,7 +5475,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G7">
         <v>52.346704908646345</v>
@@ -5535,7 +5486,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5544,12 +5495,12 @@
         <v>1.5775161253307743</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -5566,7 +5517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B85878F-6CF7-0140-A179-1418EE20569D}">
   <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
@@ -5610,16 +5561,16 @@
         <v>19</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
@@ -5640,10 +5591,10 @@
         <v>132.25</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
@@ -5668,10 +5619,10 @@
         <v>52.346704908646345</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="M3" s="12">
         <v>13</v>
@@ -5698,7 +5649,7 @@
         <v>225</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M4" s="12">
         <v>14</v>
@@ -5707,7 +5658,7 @@
         <v>184</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
@@ -5728,20 +5679,20 @@
         <v>4</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="J5" s="12" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="27" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M5" s="12">
         <v>15</v>
@@ -5751,10 +5702,10 @@
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5" s="8" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AE5" s="8" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
@@ -5794,16 +5745,16 @@
         <v>1</v>
       </c>
       <c r="Z6" s="62" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AB6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="AE6" s="8" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
@@ -5838,14 +5789,14 @@
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="M7" s="12">
         <f>AVERAGE(M3:M5)</f>
         <v>14</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="O7" s="12"/>
       <c r="X7"/>
@@ -5853,16 +5804,16 @@
         <v>2</v>
       </c>
       <c r="Z7" s="62" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AB7" s="8" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="AE7" s="8" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
@@ -5897,7 +5848,7 @@
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="M8" s="12">
         <f>_xlfn.STDEV.S(M3:M5)</f>
@@ -5925,10 +5876,10 @@
         <v>4</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I9" s="12">
         <f>SUM(I6:I8)</f>
@@ -5956,10 +5907,10 @@
         <v>4</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="M10" s="12">
         <v>6</v>
@@ -5991,10 +5942,10 @@
       </c>
       <c r="H11"/>
       <c r="L11" s="27" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="M11" s="28" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="X11"/>
       <c r="Y11"/>
@@ -6046,23 +5997,23 @@
         <v>132.25</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13" s="58" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="K13"/>
       <c r="L13" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="M13" s="12">
         <f>(M11+M10)/2</f>
         <v>15</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="X13"/>
       <c r="Y13"/>
@@ -6094,7 +6045,7 @@
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" s="8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="M14" s="12">
         <v>10</v>
@@ -6110,14 +6061,14 @@
         <v>214.23076923076923</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E15" s="9">
         <f>AVERAGE(E2:E14)</f>
         <v>113.26923076923077</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
@@ -6135,14 +6086,14 @@
         <v>184</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F16" s="8">
         <f>SQRT(E15)</f>
         <v>10.6428018288997</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
@@ -6168,14 +6119,14 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B18" s="27" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C18" s="38">
         <f>C17^2</f>
         <v>0.95866354272387688</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
@@ -6186,19 +6137,19 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D19" s="59" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="J19" s="32" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
@@ -6215,7 +6166,7 @@
         <v>169</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H20" s="12">
         <v>58.48</v>
@@ -6242,7 +6193,7 @@
         <v>176</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H21" s="12">
         <v>45.95</v>
@@ -6265,7 +6216,7 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C22" s="8">
         <v>207</v>
@@ -6287,7 +6238,7 @@
         <v>16.512621435334449</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -6296,12 +6247,12 @@
       <c r="M23"/>
       <c r="P23"/>
       <c r="Q23" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G24" s="8">
         <f>SUMPRODUCT(H20:H21,J20:J21)</f>
@@ -6378,7 +6329,7 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="G26" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -6524,7 +6475,7 @@
       <c r="P30"/>
       <c r="Q30"/>
       <c r="U30" s="8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9" t="s">
@@ -6565,7 +6516,7 @@
         <v>151</v>
       </c>
       <c r="U32" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
@@ -7168,13 +7119,13 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E1">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -7183,59 +7134,59 @@
         <v>0.5</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
         <v>97</v>
-      </c>
-      <c r="I2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="W3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C4" s="41" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E4">
         <v>0.5</v>
       </c>
       <c r="M4" s="41" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N4" s="42">
         <v>0</v>
@@ -7244,177 +7195,177 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="W4" s="47" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="X4" s="47" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="Z4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C5" s="41" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="M5" s="41" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N5" s="42">
         <v>0</v>
       </c>
       <c r="W5" s="47" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="X5" s="47" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="Z5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E6">
         <v>0.5</v>
       </c>
       <c r="M6" s="43" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="N6" s="44">
         <v>1</v>
       </c>
       <c r="W6" s="47" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="X6" s="47" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="43" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="N7" s="44">
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="W7" s="48" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="X7" s="48" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="W8" s="48" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="X8" s="48" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="M9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Q9" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="W9" s="48" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="X9" s="48" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="Z10" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="41" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="M11" s="41" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="N11" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="49" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Z11" s="19" t="s">
         <v>8</v>
@@ -7422,7 +7373,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -7436,10 +7387,10 @@
         <v>0.5</v>
       </c>
       <c r="G12" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="M12" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -7453,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="W12" s="50" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="X12" s="50">
         <v>2</v>
@@ -7472,7 +7423,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -7482,10 +7433,10 @@
         <v>0.5</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="M13" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -7495,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="W13" s="50" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="X13" s="50">
         <v>1</v>
@@ -7511,13 +7462,13 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="M14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -7525,30 +7476,30 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="Z15" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="M16" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="W16" s="48" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Z16" s="3" t="s">
         <v>8</v>
@@ -7556,31 +7507,31 @@
     </row>
     <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M17" s="43" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="N17" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="O17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="X17" s="3">
         <v>1</v>
@@ -7596,7 +7547,7 @@
     </row>
     <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -7608,7 +7559,7 @@
         <v>0.5</v>
       </c>
       <c r="M18" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -7622,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="X18" s="3">
         <v>2</v>
@@ -7634,7 +7585,7 @@
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -7643,7 +7594,7 @@
         <v>0.5</v>
       </c>
       <c r="M19" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -7661,7 +7612,7 @@
         <v>2</v>
       </c>
       <c r="W20" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.2">
@@ -7669,21 +7620,21 @@
         <v>0.44</v>
       </c>
       <c r="X21" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="N22" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.2">
@@ -7692,14 +7643,14 @@
         <v>0.5</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="M23" s="46">
         <f>50%*P12+50%*P18</f>
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -7722,18 +7673,18 @@
   <sheetData>
     <row r="1" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="L2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>8</v>
@@ -7741,7 +7692,7 @@
     </row>
     <row r="3" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L3">
         <v>4</v>
@@ -7756,7 +7707,7 @@
     </row>
     <row r="4" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -7767,7 +7718,7 @@
     </row>
     <row r="5" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K5" s="54" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="L5">
         <v>4</v>
@@ -7775,18 +7726,18 @@
     </row>
     <row r="7" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>8</v>
@@ -7794,7 +7745,7 @@
     </row>
     <row r="9" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -7808,7 +7759,7 @@
     </row>
     <row r="10" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L10">
         <v>3</v>
@@ -7819,7 +7770,7 @@
     </row>
     <row r="11" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K11" s="54" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="L11">
         <v>3</v>
@@ -7827,7 +7778,7 @@
     </row>
     <row r="13" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K13" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="11:14" x14ac:dyDescent="0.2">
@@ -7837,7 +7788,7 @@
     </row>
     <row r="17" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K17" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L17" s="55">
         <f>L21/7</f>
@@ -7846,13 +7797,13 @@
     </row>
     <row r="18" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K18" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>8</v>
@@ -7860,7 +7811,7 @@
     </row>
     <row r="19" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K19" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -7874,7 +7825,7 @@
     </row>
     <row r="20" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K20" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -7890,7 +7841,7 @@
     </row>
     <row r="23" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K23" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L23" s="7">
         <f>1-L17</f>
@@ -7899,13 +7850,13 @@
     </row>
     <row r="24" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K24" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="L24" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>8</v>
@@ -7913,7 +7864,7 @@
     </row>
     <row r="25" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K25" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -7929,7 +7880,7 @@
     </row>
     <row r="26" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K26" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="L26">
         <v>2</v>
@@ -7946,7 +7897,7 @@
     </row>
     <row r="29" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K29" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="11:14" x14ac:dyDescent="0.2">
@@ -7965,26 +7916,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1BECA9-81D9-5541-BDDC-E2E0A6318C0C}">
   <dimension ref="A4:X49"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="S4" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="T4" s="3">
         <v>50</v>
       </c>
       <c r="V4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="T5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U5" s="3">
         <v>25</v>
@@ -7996,7 +7947,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="T6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="U6" s="3">
         <v>25</v>
@@ -8014,28 +7965,28 @@
         <v>0.5</v>
       </c>
       <c r="W8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="U9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="S11" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="T11" s="3">
         <v>50</v>
       </c>
       <c r="V11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="T12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
@@ -8047,7 +7998,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="T13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="U13" s="3">
         <v>50</v>
@@ -8066,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -8077,7 +8028,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -8094,16 +8045,16 @@
         <v>1</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="T18" s="3">
         <v>50</v>
       </c>
       <c r="V18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="X18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -8121,7 +8072,7 @@
         <v>8</v>
       </c>
       <c r="T19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U19" s="3">
         <v>20</v>
@@ -8146,7 +8097,7 @@
         <v>9</v>
       </c>
       <c r="T20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="U20" s="3">
         <v>30</v>
@@ -8156,19 +8107,39 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N21" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="O21" s="50" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B22" s="52">
         <f>5/8</f>
         <v>0.625</v>
       </c>
+      <c r="N22" s="50">
+        <v>13</v>
+      </c>
+      <c r="O22" s="50">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
+      <c r="N23" s="50">
+        <v>-2</v>
+      </c>
+      <c r="O23" s="50">
+        <v>0.46</v>
+      </c>
       <c r="U23" t="s">
         <v>8</v>
       </c>
@@ -8191,6 +8162,12 @@
       <c r="D24" t="s">
         <v>8</v>
       </c>
+      <c r="N24" s="50">
+        <v>9</v>
+      </c>
+      <c r="O24" s="50">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -8206,19 +8183,25 @@
       <c r="D25" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N25" s="50">
+        <v>21</v>
+      </c>
+      <c r="O25" s="50">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="R26">
         <v>2</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="T26" s="3">
         <v>50</v>
       </c>
       <c r="V26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -8226,14 +8209,14 @@
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I27" s="3">
         <f>3/4</f>
         <v>0.75</v>
       </c>
       <c r="T27" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U27" s="3">
         <v>10</v>
@@ -8245,16 +8228,17 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K28" t="s">
         <v>8</v>
       </c>
+      <c r="O28" s="3"/>
       <c r="T28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="U28" s="3">
         <v>40</v>
@@ -8266,7 +8250,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
@@ -8284,24 +8268,26 @@
       <c r="K29" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="N29" s="55"/>
+      <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B30" s="4">
         <f>1/4</f>
         <v>0.25</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D30" s="4">
         <f>1 - 0.25^2 - 0.75^2</f>
         <v>0.375</v>
       </c>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I30">
         <f>1/3</f>
@@ -8330,14 +8316,16 @@
         <v>0.75</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1"/>
       <c r="J31" s="1"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I32" s="3">
         <f>1-I27</f>
@@ -8346,10 +8334,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
@@ -8358,7 +8346,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>8</v>
@@ -8371,7 +8359,7 @@
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -8383,7 +8371,7 @@
         <v>0.75</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D35" s="25">
         <f>1 - 0.75^2 - 0.25^2</f>
@@ -8408,7 +8396,7 @@
         <v>0.25</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1"/>
       <c r="I36" s="3"/>
@@ -8416,7 +8404,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H37" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="1"/>
@@ -8424,18 +8412,19 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C38" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G39" s="7">
-        <v>0.5</v>
+        <f>3/4</f>
+        <v>0.75</v>
       </c>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -8465,10 +8454,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G43" s="7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H43" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="1"/>
@@ -8481,11 +8470,10 @@
         <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
-        <f>1 - 0.5^2 - 0.5^2</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -8494,7 +8482,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -8503,7 +8491,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H47" s="6" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="1"/>
@@ -8724,10 +8712,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -8756,7 +8744,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>52.346704908646345</v>
@@ -8785,13 +8773,13 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -8829,7 +8817,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B7">
         <v>52.346704908646345</v>
@@ -8860,10 +8848,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -8940,7 +8928,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B13">
         <v>214.23076923076923</v>
@@ -8969,16 +8957,16 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9025,7 +9013,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B7">
         <v>24.653712814818697</v>
